--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H2">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I2">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J2">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.438062</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N2">
-        <v>1.314186</v>
+        <v>0.537157</v>
       </c>
       <c r="O2">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>16.145504821292</v>
+        <v>0.7579149190226666</v>
       </c>
       <c r="R2">
-        <v>145.309543391628</v>
+        <v>6.821234271204</v>
       </c>
       <c r="S2">
-        <v>0.08438972010859762</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="T2">
-        <v>0.0843897201085976</v>
+        <v>0.05792409824508497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.856666</v>
+        <v>23.77965533333333</v>
       </c>
       <c r="H3">
-        <v>110.569998</v>
+        <v>71.338966</v>
       </c>
       <c r="I3">
-        <v>0.1389359711410444</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J3">
-        <v>0.1389359711410443</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2831463333333333</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N3">
-        <v>0.8494390000000001</v>
+        <v>0.537157</v>
       </c>
       <c r="O3">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>10.43582983679133</v>
+        <v>4.257802773295778</v>
       </c>
       <c r="R3">
-        <v>93.92246853112201</v>
+        <v>38.320224959662</v>
       </c>
       <c r="S3">
-        <v>0.05454625103244674</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="T3">
-        <v>0.05454625103244673</v>
+        <v>0.3254051080913002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.77965533333333</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H4">
-        <v>71.338966</v>
+        <v>21.019096</v>
       </c>
       <c r="I4">
-        <v>0.089640487480229</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J4">
-        <v>0.08964048748022899</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.438062</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N4">
-        <v>1.314186</v>
+        <v>0.537157</v>
       </c>
       <c r="O4">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>10.41696337463067</v>
+        <v>1.254506061119111</v>
       </c>
       <c r="R4">
-        <v>93.752670371676</v>
+        <v>11.290554550072</v>
       </c>
       <c r="S4">
-        <v>0.05444763934586272</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="T4">
-        <v>0.05444763934586271</v>
+        <v>0.09587637148905992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.77965533333333</v>
+        <v>38.058136</v>
       </c>
       <c r="H5">
-        <v>71.338966</v>
+        <v>114.174408</v>
       </c>
       <c r="I5">
-        <v>0.089640487480229</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J5">
-        <v>0.08964048748022899</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2831463333333333</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N5">
-        <v>0.8494390000000001</v>
+        <v>0.537157</v>
       </c>
       <c r="O5">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>6.733122215563778</v>
+        <v>6.814398053117333</v>
       </c>
       <c r="R5">
-        <v>60.598099940074</v>
+        <v>61.329582478056</v>
       </c>
       <c r="S5">
-        <v>0.03519284813436628</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="T5">
-        <v>0.03519284813436627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.456122</v>
-      </c>
-      <c r="H6">
-        <v>16.368366</v>
-      </c>
-      <c r="I6">
-        <v>0.02056755781258178</v>
-      </c>
-      <c r="J6">
-        <v>0.02056755781258178</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.438062</v>
-      </c>
-      <c r="N6">
-        <v>1.314186</v>
-      </c>
-      <c r="O6">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="P6">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="Q6">
-        <v>2.390119715564</v>
-      </c>
-      <c r="R6">
-        <v>21.511077440076</v>
-      </c>
-      <c r="S6">
-        <v>0.01249273627892338</v>
-      </c>
-      <c r="T6">
-        <v>0.01249273627892338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.456122</v>
-      </c>
-      <c r="H7">
-        <v>16.368366</v>
-      </c>
-      <c r="I7">
-        <v>0.02056755781258178</v>
-      </c>
-      <c r="J7">
-        <v>0.02056755781258178</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2831463333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.8494390000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="P7">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="Q7">
-        <v>1.544880938519333</v>
-      </c>
-      <c r="R7">
-        <v>13.903928446674</v>
-      </c>
-      <c r="S7">
-        <v>0.0080748215336584</v>
-      </c>
-      <c r="T7">
-        <v>0.008074821533658398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>199.1856246666667</v>
-      </c>
-      <c r="H8">
-        <v>597.556874</v>
-      </c>
-      <c r="I8">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="J8">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.438062</v>
-      </c>
-      <c r="N8">
-        <v>1.314186</v>
-      </c>
-      <c r="O8">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="P8">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="Q8">
-        <v>87.25565311272933</v>
-      </c>
-      <c r="R8">
-        <v>785.3008780145641</v>
-      </c>
-      <c r="S8">
-        <v>0.4560699851493941</v>
-      </c>
-      <c r="T8">
-        <v>0.4560699851493941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>199.1856246666667</v>
-      </c>
-      <c r="H9">
-        <v>597.556874</v>
-      </c>
-      <c r="I9">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="J9">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.2831463333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.8494390000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="P9">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="Q9">
-        <v>56.39867927707622</v>
-      </c>
-      <c r="R9">
-        <v>507.588113493686</v>
-      </c>
-      <c r="S9">
-        <v>0.2947859984167508</v>
-      </c>
-      <c r="T9">
-        <v>0.2947859984167508</v>
+        <v>0.5207944221745548</v>
       </c>
     </row>
   </sheetData>
